--- a/output/ejecucion_10/gridsearch_results/gs_ca_Regression Forest_s.xlsx
+++ b/output/ejecucion_10/gridsearch_results/gs_ca_Regression Forest_s.xlsx
@@ -501,16 +501,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>110.6240639686584</v>
+        <v>111.9360394954681</v>
       </c>
       <c r="C2">
-        <v>1.502173534470471</v>
+        <v>0.6453997746080238</v>
       </c>
       <c r="D2">
-        <v>0.1150784015655518</v>
+        <v>0.1144569873809815</v>
       </c>
       <c r="E2">
-        <v>0.001251881825641226</v>
+        <v>0.003562783791928659</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -531,7 +531,7 @@
         <v>0.6600721422616618</v>
       </c>
       <c r="L2">
-        <v>0.6566522580137591</v>
+        <v>0.656652258013759</v>
       </c>
       <c r="M2">
         <v>0.6841309943174133</v>
@@ -540,7 +540,7 @@
         <v>0.6653907580050149</v>
       </c>
       <c r="O2">
-        <v>0.009666000333665919</v>
+        <v>0.00966600033366594</v>
       </c>
       <c r="P2">
         <v>7</v>
@@ -551,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>219.5195336341858</v>
+        <v>221.0691627025604</v>
       </c>
       <c r="C3">
-        <v>0.6242815159847661</v>
+        <v>1.7823321168532</v>
       </c>
       <c r="D3">
-        <v>0.1532682418823242</v>
+        <v>0.1574105739593506</v>
       </c>
       <c r="E3">
-        <v>0.00580487532851276</v>
+        <v>0.005340428732216214</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -578,7 +578,7 @@
         <v>0.6654198319292468</v>
       </c>
       <c r="K3">
-        <v>0.6548013454654911</v>
+        <v>0.654801345465491</v>
       </c>
       <c r="L3">
         <v>0.6546339071266547</v>
@@ -590,7 +590,7 @@
         <v>0.6643004697932315</v>
       </c>
       <c r="O3">
-        <v>0.01033101591189146</v>
+        <v>0.01033101591189148</v>
       </c>
       <c r="P3">
         <v>9</v>
@@ -601,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>437.2174755573272</v>
+        <v>442.7292203426361</v>
       </c>
       <c r="C4">
-        <v>1.554358302469289</v>
+        <v>1.980631326884267</v>
       </c>
       <c r="D4">
-        <v>0.2631959438323975</v>
+        <v>0.2337035655975342</v>
       </c>
       <c r="E4">
-        <v>0.05524468575554592</v>
+        <v>0.007754493575099944</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -651,16 +651,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>117.7146680831909</v>
+        <v>119.0754226207733</v>
       </c>
       <c r="C5">
-        <v>1.507786897270368</v>
+        <v>0.9305647941954942</v>
       </c>
       <c r="D5">
-        <v>0.117265796661377</v>
+        <v>0.1175960540771484</v>
       </c>
       <c r="E5">
-        <v>0.004826844682311359</v>
+        <v>0.004232119372244544</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -678,7 +678,7 @@
         <v>0.6676088708892489</v>
       </c>
       <c r="K5">
-        <v>0.6610675349577236</v>
+        <v>0.6610675349577235</v>
       </c>
       <c r="L5">
         <v>0.6599756255386369</v>
@@ -690,7 +690,7 @@
         <v>0.6692983699305293</v>
       </c>
       <c r="O5">
-        <v>0.01002972262966883</v>
+        <v>0.01002972262966884</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -701,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>233.533271074295</v>
+        <v>234.6029543399811</v>
       </c>
       <c r="C6">
-        <v>2.275258884372993</v>
+        <v>2.31929660193151</v>
       </c>
       <c r="D6">
-        <v>0.1593509197235107</v>
+        <v>0.1513891696929932</v>
       </c>
       <c r="E6">
-        <v>0.007543562749242884</v>
+        <v>0.003582403455003405</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -725,7 +725,7 @@
         <v>0.6681192242466167</v>
       </c>
       <c r="J6">
-        <v>0.6703658956891365</v>
+        <v>0.6703658956891366</v>
       </c>
       <c r="K6">
         <v>0.6588961780755345</v>
@@ -740,7 +740,7 @@
         <v>0.6686618390091748</v>
       </c>
       <c r="O6">
-        <v>0.01023413291877256</v>
+        <v>0.01023413291877257</v>
       </c>
       <c r="P6">
         <v>6</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>465.6292218208313</v>
+        <v>468.3360932350159</v>
       </c>
       <c r="C7">
-        <v>4.717980792940197</v>
+        <v>2.909139299892306</v>
       </c>
       <c r="D7">
-        <v>0.230445384979248</v>
+        <v>0.2299377918243408</v>
       </c>
       <c r="E7">
-        <v>0.0040942027515117</v>
+        <v>0.009518094785528812</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -801,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>119.0513673782349</v>
+        <v>118.9495692253113</v>
       </c>
       <c r="C8">
-        <v>1.521814671202825</v>
+        <v>1.214860380619897</v>
       </c>
       <c r="D8">
-        <v>0.1180498600006104</v>
+        <v>0.1147030353546143</v>
       </c>
       <c r="E8">
-        <v>0.003007606269023144</v>
+        <v>0.00311445165644298</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -851,16 +851,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>234.2105441093445</v>
+        <v>233.3008274555206</v>
       </c>
       <c r="C9">
-        <v>2.245736210121088</v>
+        <v>2.217669258487824</v>
       </c>
       <c r="D9">
-        <v>0.1555822849273682</v>
+        <v>0.1543183326721191</v>
       </c>
       <c r="E9">
-        <v>0.01079086111705732</v>
+        <v>0.002605014289348274</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -901,16 +901,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>474.4945158004761</v>
+        <v>472.4218649864197</v>
       </c>
       <c r="C10">
-        <v>6.171674086063184</v>
+        <v>7.579562481507373</v>
       </c>
       <c r="D10">
-        <v>0.237118673324585</v>
+        <v>0.2319415092468262</v>
       </c>
       <c r="E10">
-        <v>0.007771656359630257</v>
+        <v>0.007439090298145489</v>
       </c>
       <c r="F10">
         <v>30</v>
